--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1330.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1330.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.077227155928831</v>
+        <v>0.9972748160362244</v>
       </c>
       <c r="B1">
-        <v>2.577343888213776</v>
+        <v>2.066300630569458</v>
       </c>
       <c r="C1">
-        <v>4.919478267016458</v>
+        <v>9.404514312744141</v>
       </c>
       <c r="D1">
-        <v>2.295372375009673</v>
+        <v>2.685243844985962</v>
       </c>
       <c r="E1">
-        <v>1.214987138321292</v>
+        <v>1.403477072715759</v>
       </c>
     </row>
   </sheetData>
